--- a/assets/conversation/Future-Simple.xlsx
+++ b/assets/conversation/Future-Simple.xlsx
@@ -2,18 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\OneDrive\เอกสาร\GitHub\testgame\assets\conversation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Pictures\Jiw\Project\grammar-police-game\testgame\assets\conversation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A479DE6-CE32-4525-BAD1-4330958F5B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8789F8CA-170A-41F5-B1E5-69030FECBBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00969C51-5CE8-4AB3-ADB7-BABFF4C5F3E7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11860" xr2:uid="{00969C51-5CE8-4AB3-ADB7-BABFF4C5F3E7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Future-Simple" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,7 +84,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -94,7 +94,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -116,7 +116,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -126,7 +126,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -148,7 +148,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -158,7 +158,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -177,7 +177,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -187,7 +187,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -209,7 +209,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -219,7 +219,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -244,7 +244,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -254,7 +254,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -273,7 +273,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -283,7 +283,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -308,7 +308,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -318,7 +318,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -334,7 +334,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -344,7 +344,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -360,7 +360,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -370,7 +370,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -386,7 +386,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -396,7 +396,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -412,7 +412,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -422,7 +422,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -438,7 +438,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -448,7 +448,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -467,7 +467,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -477,7 +477,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -493,7 +493,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -503,7 +503,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -519,7 +519,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -529,7 +529,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -554,7 +554,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -564,7 +564,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -583,7 +583,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -593,7 +593,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -615,7 +615,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -625,7 +625,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -641,7 +641,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -651,7 +651,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -670,7 +670,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -680,7 +680,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -699,7 +699,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -709,7 +709,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -725,7 +725,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -735,7 +735,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -754,7 +754,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -764,7 +764,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -780,7 +780,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -790,7 +790,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -809,7 +809,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -819,7 +819,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -841,7 +841,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -851,7 +851,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -867,7 +867,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -877,7 +877,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -899,7 +899,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -909,7 +909,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -925,7 +925,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -935,7 +935,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -954,7 +954,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -964,7 +964,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -980,7 +980,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -990,7 +990,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1009,7 +1009,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1019,7 +1019,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1035,7 +1035,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1045,7 +1045,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1061,7 +1061,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1071,7 +1071,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1087,7 +1087,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1097,7 +1097,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1113,7 +1113,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1123,7 +1123,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1139,7 +1139,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1149,7 +1149,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1168,7 +1168,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1178,7 +1178,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1194,7 +1194,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1204,7 +1204,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1219,7 +1219,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1229,7 +1229,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1239,7 +1239,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1256,7 +1256,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1264,20 +1264,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1315,7 +1315,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1649,11 +1649,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196128B5-B759-4961-B83C-B5E7DF65831B}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="107" zoomScaleNormal="114" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="8.6640625" style="1"/>
     <col min="3" max="3" width="23.4140625" style="2" customWidth="1"/>
@@ -1661,7 +1661,7 @@
     <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="66" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="84" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="99" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="84" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="99" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <f>A2</f>
         <v>1</v>
@@ -1743,7 +1743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <f t="shared" ref="A5" si="0">A4</f>
         <v>1</v>
@@ -1764,7 +1764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <f>A6</f>
         <v>2</v>
@@ -1826,7 +1826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="66" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="70" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="66" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="70" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="82.5" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <f>A9</f>
         <v>3</v>
@@ -1888,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="84" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="99" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <f t="shared" ref="A12" si="2">A11</f>
         <v>3</v>
@@ -1910,7 +1910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="84" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="99" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <f>A13</f>
         <v>4</v>
@@ -1953,7 +1953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="66" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>5</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="70" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="82.5" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="98" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="115.5" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <f>A15</f>
         <v>5</v>
@@ -2015,7 +2015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="137" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="137" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <f t="shared" ref="A18" si="4">A17</f>
         <v>5</v>
@@ -2037,7 +2037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>6</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <f t="shared" ref="A20:A22" si="6">A19</f>
         <v>6</v>
@@ -2080,7 +2080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -2102,7 +2102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -2124,7 +2124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>7</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <f t="shared" ref="A24:A26" si="8">A23</f>
         <v>7</v>
@@ -2167,7 +2167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="84" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="82.5" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <f t="shared" si="8"/>
         <v>7</v>
@@ -2189,7 +2189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="66" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <f t="shared" si="8"/>
         <v>7</v>
@@ -2211,7 +2211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>8</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>8</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <f t="shared" ref="A29" si="10">A28</f>
         <v>8</v>
@@ -2273,7 +2273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>9</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <f t="shared" ref="A31:A32" si="11">A30</f>
         <v>9</v>
@@ -2316,7 +2316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <f t="shared" si="11"/>
         <v>9</v>
@@ -2338,7 +2338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>10</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <f t="shared" ref="A34:A35" si="13">A33</f>
         <v>10</v>
@@ -2381,7 +2381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <f t="shared" si="13"/>
         <v>10</v>
@@ -2403,7 +2403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>11</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <f t="shared" ref="A37:A39" si="15">A36</f>
         <v>11</v>
@@ -2446,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <f t="shared" si="15"/>
         <v>11</v>
@@ -2468,7 +2468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="66" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <f t="shared" si="15"/>
         <v>11</v>
@@ -2490,7 +2490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>12</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <f t="shared" ref="A41:A43" si="17">A40</f>
         <v>12</v>
@@ -2533,7 +2533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <f t="shared" si="17"/>
         <v>12</v>
@@ -2555,7 +2555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <f t="shared" si="17"/>
         <v>12</v>
@@ -2577,7 +2577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>13</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <f t="shared" ref="A45:A47" si="19">A44</f>
         <v>13</v>
@@ -2620,7 +2620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <f t="shared" si="19"/>
         <v>13</v>
@@ -2642,7 +2642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <f t="shared" si="19"/>
         <v>13</v>
@@ -2664,7 +2664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>14</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <f t="shared" ref="A49:A51" si="21">A48</f>
         <v>14</v>
@@ -2707,7 +2707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <f t="shared" si="21"/>
         <v>14</v>
@@ -2729,7 +2729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="66" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <f t="shared" si="21"/>
         <v>14</v>
@@ -2751,7 +2751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="70" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="66" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>15</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="84" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="82.5" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <f t="shared" ref="A53:A55" si="23">A52</f>
         <v>15</v>
@@ -2794,7 +2794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="84" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="99" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <f t="shared" si="23"/>
         <v>15</v>
@@ -2816,7 +2816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="91" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="91" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <f t="shared" si="23"/>
         <v>15</v>
